--- a/data/pred_conc_sus.xlsx
+++ b/data/pred_conc_sus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Labuser\Documents\GitHub\PFOA_semi_quant\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6EA769-43AA-44A5-9130-4BE403A24B97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBA7FEC-6F22-406D-9867-7488B7C44B44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
